--- a/script/App Core Trt/App_Core_trt_list.xlsx
+++ b/script/App Core Trt/App_Core_trt_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\script\App Core Trt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405B7AA2-0724-4FCC-B343-5173391E9505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3EB480-3164-4D8B-A1B4-8326B41CBCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YSMR - Entrate Diverse" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="YCALCGIAC-Calcolo Giacenza" sheetId="5" r:id="rId5"/>
     <sheet name="YVBPC-Ricerca Clienti" sheetId="6" r:id="rId6"/>
     <sheet name="YVSOH - Ricerca OdV" sheetId="7" r:id="rId7"/>
-    <sheet name="Librerie" sheetId="8" r:id="rId8"/>
+    <sheet name="YCSTK-Cambio Stock" sheetId="9" r:id="rId8"/>
+    <sheet name="YGIAC" sheetId="10" r:id="rId9"/>
+    <sheet name="Librerie" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Nome Trt</t>
   </si>
@@ -44,14 +46,70 @@
   </si>
   <si>
     <t>YSOH</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>YAX3MWSLIBCUSTOM_BCK</t>
+  </si>
+  <si>
+    <t>YAX3MWSLIBCUSTOM</t>
+  </si>
+  <si>
+    <t>YAX3MWSLIBOBJECT</t>
+  </si>
+  <si>
+    <t>YAX3MWSLIBOBJECT_BCK</t>
+  </si>
+  <si>
+    <t>YAX3MSTOCKLIB</t>
+  </si>
+  <si>
+    <t>YAX3MSELCUSTOM</t>
+  </si>
+  <si>
+    <t>YAX3MSELCUSTOM_BCK</t>
+  </si>
+  <si>
+    <t>Descrizione</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>da  fare</t>
+  </si>
+  <si>
+    <t>SPESMR</t>
+  </si>
+  <si>
+    <t>SPESMO</t>
+  </si>
+  <si>
+    <t>IMPSMRS</t>
+  </si>
+  <si>
+    <t>SPESOH</t>
+  </si>
+  <si>
+    <t>Libreria con funzioni di utilità - Settore STOCK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -67,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -147,11 +205,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -159,6 +254,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -442,88 +546,181 @@
   <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B18"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FD526-26A4-4CB6-84B9-12A9EC03DA31}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -535,80 +732,80 @@
       <selection activeCell="A2" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
     </row>
@@ -621,84 +818,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2A05B7-F569-4EAA-B543-25D5D9A24ECE}">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
     </row>
@@ -713,7 +910,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -727,7 +924,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -741,7 +938,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -753,19 +950,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FD526-26A4-4CB6-84B9-12A9EC03DA31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6D2DCE-B490-4A4D-9A8C-7340F5718326}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A47673-CE99-4DA5-8804-D106F8E5395D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/script/App Core Trt/App_Core_trt_list.xlsx
+++ b/script/App Core Trt/App_Core_trt_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\script\App Core Trt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3EB480-3164-4D8B-A1B4-8326B41CBCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8D8112-6130-4616-90DD-20786AE4006C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YSMR - Entrate Diverse" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
   <si>
     <t>Nome Trt</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>da  fare</t>
-  </si>
-  <si>
     <t>SPESMR</t>
   </si>
   <si>
@@ -94,6 +91,117 @@
   </si>
   <si>
     <t>Libreria con funzioni di utilità - Settore STOCK</t>
+  </si>
+  <si>
+    <t>Note/Descrizione</t>
+  </si>
+  <si>
+    <t>Script di funzione</t>
+  </si>
+  <si>
+    <t>Nome TRT libreria associati</t>
+  </si>
+  <si>
+    <t>YAX3MSELITMENT</t>
+  </si>
+  <si>
+    <t>YAX3MSELITMLNK</t>
+  </si>
+  <si>
+    <t>YAX3MSELLOCENT</t>
+  </si>
+  <si>
+    <t>YAX3MSELLOCLNK</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>YAX3MSELITMUSC</t>
+  </si>
+  <si>
+    <t>YAX3MSELLOCUSC</t>
+  </si>
+  <si>
+    <t>YAX3MSELLOTUSC</t>
+  </si>
+  <si>
+    <t>YAX3MSELLOTLNK</t>
+  </si>
+  <si>
+    <t>YAX3MSERNUSC</t>
+  </si>
+  <si>
+    <t>YAX3MSERNENT</t>
+  </si>
+  <si>
+    <t>SPESCS</t>
+  </si>
+  <si>
+    <t>YAX3MSELSERLNK</t>
+  </si>
+  <si>
+    <t>YAX3MSELITMSOH</t>
+  </si>
+  <si>
+    <t>YAX3MSELTSOSOH</t>
+  </si>
+  <si>
+    <t>YAX3MSELTSOLNK</t>
+  </si>
+  <si>
+    <t>YAX3MSELVCRLNK</t>
+  </si>
+  <si>
+    <t>YAX3MSELVCRSOH</t>
+  </si>
+  <si>
+    <t>YBPC</t>
+  </si>
+  <si>
+    <t>YAX3MSELBADBPC</t>
+  </si>
+  <si>
+    <t>YAX3MSELBPAADDLNK</t>
+  </si>
+  <si>
+    <t>YAX3MSELCTYBPC</t>
+  </si>
+  <si>
+    <t>*  (togliere)</t>
+  </si>
+  <si>
+    <t>YCALCGIAC</t>
+  </si>
+  <si>
+    <t>Funzione di Test, per sperimentazioni</t>
+  </si>
+  <si>
+    <t>YVBPC</t>
+  </si>
+  <si>
+    <t>YVSOH</t>
+  </si>
+  <si>
+    <t>YCSTK</t>
+  </si>
+  <si>
+    <t>YAX3MSELITMCSTK</t>
+  </si>
+  <si>
+    <t>YAX3MSELLOCCSTK</t>
+  </si>
+  <si>
+    <t>YAX3MSELLOTCSTK</t>
+  </si>
+  <si>
+    <t>YAX3MSELSERCSTK</t>
+  </si>
+  <si>
+    <t>YAX3MSELVCRCSTK</t>
+  </si>
+  <si>
+    <t>YGIAC</t>
   </si>
 </sst>
 </file>
@@ -125,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -134,44 +242,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -187,22 +258,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -242,27 +298,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -543,88 +646,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B18"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="83.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -633,10 +853,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FD526-26A4-4CB6-84B9-12A9EC03DA31}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,13 +867,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -682,7 +902,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,28 +914,30 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -726,88 +948,202 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55263B65-CEE1-4CF1-9D0F-A2B06144C08F}">
-  <dimension ref="A2:B18"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B18"/>
+      <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -816,88 +1152,204 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2A05B7-F569-4EAA-B543-25D5D9A24ECE}">
-  <dimension ref="A2:B18"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="78.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -906,78 +1358,1085 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB13D7-C7C0-415D-9623-2192F5C01004}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="80.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB31DFD-3D0A-4FDD-B220-BC0B0C97F16B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6014FA3C-F8ED-466B-AF76-D2D2202BFA26}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1388D6-E624-4AD7-8830-7CD0DE612279}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6D2DCE-B490-4A4D-9A8C-7340F5718326}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A47673-CE99-4DA5-8804-D106F8E5395D}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/script/App Core Trt/App_Core_trt_list.xlsx
+++ b/script/App Core Trt/App_Core_trt_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\script\App Core Trt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8D8112-6130-4616-90DD-20786AE4006C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAD7F1E-0205-4B91-A03C-524B8FA2B8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YSMR - Entrate Diverse" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="YVBPC-Ricerca Clienti" sheetId="6" r:id="rId6"/>
     <sheet name="YVSOH - Ricerca OdV" sheetId="7" r:id="rId7"/>
     <sheet name="YCSTK-Cambio Stock" sheetId="9" r:id="rId8"/>
-    <sheet name="YGIAC" sheetId="10" r:id="rId9"/>
-    <sheet name="Librerie" sheetId="8" r:id="rId10"/>
+    <sheet name="YVCSOH - Ricerca ODV (mod Cons)" sheetId="11" r:id="rId9"/>
+    <sheet name="YGIAC" sheetId="10" r:id="rId10"/>
+    <sheet name="Librerie" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="69">
   <si>
     <t>Nome Trt</t>
   </si>
@@ -132,9 +133,6 @@
     <t>YAX3MSERNUSC</t>
   </si>
   <si>
-    <t>YAX3MSERNENT</t>
-  </si>
-  <si>
     <t>SPESCS</t>
   </si>
   <si>
@@ -202,6 +200,48 @@
   </si>
   <si>
     <t>YGIAC</t>
+  </si>
+  <si>
+    <t>YVCSOH</t>
+  </si>
+  <si>
+    <t>YAX3MCRMLIB</t>
+  </si>
+  <si>
+    <t>Libreria per Selezioni Custom AppCore</t>
+  </si>
+  <si>
+    <t>Libreria per Selezioni Custom AppCore-BACKUP</t>
+  </si>
+  <si>
+    <t>Libreria per gestione Oggetti per Selezioni ad Oggetto AppCore</t>
+  </si>
+  <si>
+    <t>Libreria per gestione Oggetti per Selezioni ad Oggetto AppCore - BACKUP</t>
+  </si>
+  <si>
+    <t>Libreria funzioni utilizzate in ambito CRM</t>
+  </si>
+  <si>
+    <t>Libreria per Selezioni Custom AppCore (Elenco subprg)</t>
+  </si>
+  <si>
+    <t>Libreria per Selezioni Custom AppCore (Elenco subprg)-BACKUP</t>
+  </si>
+  <si>
+    <t>(gestione inserimento utente da Mobile nel CREUSR, UPDUSR via Modello di Import)</t>
+  </si>
+  <si>
+    <t>(gestione APRES_CRE)</t>
+  </si>
+  <si>
+    <t>* (NON ESISTE)</t>
+  </si>
+  <si>
+    <t>* NON ESISTE</t>
+  </si>
+  <si>
+    <t>* non esiste</t>
   </si>
 </sst>
 </file>
@@ -330,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -349,8 +389,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,10 +400,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -646,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +700,7 @@
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -679,143 +716,151 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>19</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="1"/>
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>32</v>
+      <c r="A21" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -825,26 +870,6 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -852,6 +877,98 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A47673-CE99-4DA5-8804-D106F8E5395D}">
+  <dimension ref="A2:B16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FD526-26A4-4CB6-84B9-12A9EC03DA31}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -937,7 +1054,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -948,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55263B65-CEE1-4CF1-9D0F-A2B06144C08F}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +1079,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -973,177 +1090,147 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>7</v>
+      <c r="A23" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1152,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2A05B7-F569-4EAA-B543-25D5D9A24ECE}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B22"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1253,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1177,179 +1264,149 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1358,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB13D7-C7C0-415D-9623-2192F5C01004}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,7 +1429,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1381,159 +1438,145 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="13"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="13"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="1"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="13"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1542,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB31DFD-3D0A-4FDD-B220-BC0B0C97F16B}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1599,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1565,139 +1608,113 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1706,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6014FA3C-F8ED-466B-AF76-D2D2202BFA26}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1737,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1729,139 +1746,113 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1870,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1388D6-E624-4AD7-8830-7CD0DE612279}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B32"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,7 +1875,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1893,139 +1884,113 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2034,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6D2DCE-B490-4A4D-9A8C-7340F5718326}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2013,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2057,213 +2022,183 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="14"/>
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1"/>
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1"/>
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>25</v>
+      <c r="A18" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>52</v>
+      <c r="A19" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>30</v>
+      <c r="A20" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>53</v>
+      <c r="A21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>34</v>
+      <c r="A22" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2272,169 +2207,137 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A47673-CE99-4DA5-8804-D106F8E5395D}">
-  <dimension ref="A2:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5E2935-2EAB-4B55-AC5A-E6A53E853195}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/script/App Core Trt/App_Core_trt_list.xlsx
+++ b/script/App Core Trt/App_Core_trt_list.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\script\App Core Trt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAD7F1E-0205-4B91-A03C-524B8FA2B8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764D2FDF-C8D8-4D46-9A45-D0299A45DE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="516" yWindow="108" windowWidth="21600" windowHeight="11292" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="YSMR - Entrate Diverse" sheetId="1" r:id="rId1"/>
-    <sheet name="YSMO - Uscite Diverse" sheetId="2" r:id="rId2"/>
-    <sheet name="YSOH - OdV" sheetId="3" r:id="rId3"/>
-    <sheet name="YBPC - Creazione Cliente" sheetId="4" r:id="rId4"/>
-    <sheet name="YCALCGIAC-Calcolo Giacenza" sheetId="5" r:id="rId5"/>
-    <sheet name="YVBPC-Ricerca Clienti" sheetId="6" r:id="rId6"/>
-    <sheet name="YVSOH - Ricerca OdV" sheetId="7" r:id="rId7"/>
-    <sheet name="YCSTK-Cambio Stock" sheetId="9" r:id="rId8"/>
-    <sheet name="YVCSOH - Ricerca ODV (mod Cons)" sheetId="11" r:id="rId9"/>
-    <sheet name="YGIAC" sheetId="10" r:id="rId10"/>
-    <sheet name="Librerie" sheetId="8" r:id="rId11"/>
+    <sheet name="TRT_APPCORE-GLOB" sheetId="13" r:id="rId1"/>
+    <sheet name="YSMR - Entrate Diverse" sheetId="1" r:id="rId2"/>
+    <sheet name="YSMO - Uscite Diverse" sheetId="2" r:id="rId3"/>
+    <sheet name="YSOH - OdV" sheetId="3" r:id="rId4"/>
+    <sheet name="YBPC - Creazione Cliente" sheetId="4" r:id="rId5"/>
+    <sheet name="YCALCGIAC-Calcolo Giacenza" sheetId="5" r:id="rId6"/>
+    <sheet name="YVBPC-Ricerca Clienti" sheetId="6" r:id="rId7"/>
+    <sheet name="YVSOH - Ricerca OdV" sheetId="7" r:id="rId8"/>
+    <sheet name="YCSTK-Cambio Stock" sheetId="9" r:id="rId9"/>
+    <sheet name="Foglio1" sheetId="12" r:id="rId10"/>
+    <sheet name="YVCSOH - Ricerca ODV (mod Cons)" sheetId="11" r:id="rId11"/>
+    <sheet name="YGIAC" sheetId="10" r:id="rId12"/>
+    <sheet name="Librerie" sheetId="8" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="76">
   <si>
     <t>Nome Trt</t>
   </si>
@@ -154,9 +156,6 @@
     <t>YAX3MSELVCRSOH</t>
   </si>
   <si>
-    <t>YBPC</t>
-  </si>
-  <si>
     <t>YAX3MSELBADBPC</t>
   </si>
   <si>
@@ -175,9 +174,6 @@
     <t>Funzione di Test, per sperimentazioni</t>
   </si>
   <si>
-    <t>YVBPC</t>
-  </si>
-  <si>
     <t>YVSOH</t>
   </si>
   <si>
@@ -242,6 +238,33 @@
   </si>
   <si>
     <t>* non esiste</t>
+  </si>
+  <si>
+    <t>trt</t>
+  </si>
+  <si>
+    <t>YAX3MSELACCCODBPC</t>
+  </si>
+  <si>
+    <t>YAX3MSELPTELNK</t>
+  </si>
+  <si>
+    <t>YAX3MSELVACBPRBPC</t>
+  </si>
+  <si>
+    <t>YAX3MSELPTEBPC</t>
+  </si>
+  <si>
+    <t>YAX3MSELVACLNK</t>
+  </si>
+  <si>
+    <t>YAX3MSELACCLNK</t>
+  </si>
+  <si>
+    <t>YVBPC / YX3MVBPC</t>
+  </si>
+  <si>
+    <t>YBPC / YAX3MBPC</t>
   </si>
 </sst>
 </file>
@@ -682,194 +705,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E657C7-48A0-480C-9DAE-A54F9923FDB0}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="83.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -877,6 +725,156 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E67802-3280-495B-A90F-0193A8CC92F7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5E2935-2EAB-4B55-AC5A-E6A53E853195}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A47673-CE99-4DA5-8804-D106F8E5395D}">
   <dimension ref="A2:B16"/>
   <sheetViews>
@@ -892,7 +890,7 @@
   <sheetData>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -905,7 +903,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>20</v>
@@ -968,7 +966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6FD526-26A4-4CB6-84B9-12A9EC03DA31}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -1064,10 +1062,205 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="83.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55263B65-CEE1-4CF1-9D0F-A2B06144C08F}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1187,7 +1380,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1237,7 +1430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2A05B7-F569-4EAA-B543-25D5D9A24ECE}">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -1325,7 +1518,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1413,12 +1606,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB13D7-C7C0-415D-9623-2192F5C01004}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1631,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>20</v>
@@ -1469,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,27 +1670,27 @@
         <v>11</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1710,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,39 +1718,51 @@
         <v>8</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B18" s="13"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,12 +1788,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB31DFD-3D0A-4FDD-B220-BC0B0C97F16B}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1813,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>20</v>
@@ -1671,7 +1876,9 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1721,12 +1928,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6014FA3C-F8ED-466B-AF76-D2D2202BFA26}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,7 +1953,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>20</v>
@@ -1859,7 +2066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1388D6-E624-4AD7-8830-7CD0DE612279}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1884,7 +2091,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>20</v>
@@ -1997,11 +2204,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6D2DCE-B490-4A4D-9A8C-7340F5718326}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2022,7 +2229,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>20</v>
@@ -2046,7 +2253,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="12"/>
     </row>
@@ -2058,7 +2265,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1"/>
     </row>
@@ -2070,7 +2277,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1"/>
     </row>
@@ -2082,7 +2289,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1"/>
     </row>
@@ -2102,10 +2309,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2113,7 +2320,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2204,142 +2411,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5E2935-2EAB-4B55-AC5A-E6A53E853195}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>